--- a/SLS.xlsx
+++ b/SLS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED780415-1565-449E-8BF8-4881BCBC4ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FBDC8-9B02-4C6B-AF52-55A8E18166EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30075" yWindow="60" windowWidth="29955" windowHeight="20700" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
+    <workbookView xWindow="-30315" yWindow="4680" windowWidth="24495" windowHeight="15345" activeTab="2" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="galinpepimut-S" sheetId="2" r:id="rId2"/>
+    <sheet name="Literature" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
   <si>
     <t>Price</t>
   </si>
@@ -340,6 +341,42 @@
   </si>
   <si>
     <t xml:space="preserve">  Patients screened for WT1 immune response?</t>
+  </si>
+  <si>
+    <t>WT-1 is Required for Early Kidney Development. Kreidberg et al. Cell 1993.</t>
+  </si>
+  <si>
+    <t>Tumor suppressor gene was known by 1993.</t>
+  </si>
+  <si>
+    <t>Expressed in mesenchymal cells of the metanephros</t>
+  </si>
+  <si>
+    <t>Germline WT1 mutations are associated with Wilms' tumor, and urogenital malformations.</t>
+  </si>
+  <si>
+    <t>Heterozygous people have cryptorchidism, hypospadias (misplaced urethra)</t>
+  </si>
+  <si>
+    <t>ZFD, four alternative splicing transcripts</t>
+  </si>
+  <si>
+    <t>Alternative splicing and genomic structure of the Wilms tumorgene WT1. Haber et al. PNAS 1991</t>
+  </si>
+  <si>
+    <t>11p13 locus, highly expressed in developing kidney. Suggested protein structure is 45-49kDa TF.</t>
+  </si>
+  <si>
+    <t>WT1 as a new Prognostic Factor and a New Marker for the Detection of MRD in Acute Leukemia. Inoue et al. Blood 1994.</t>
+  </si>
+  <si>
+    <t>Wilms Tumor requires inactivation of both alleles of WT1</t>
+  </si>
+  <si>
+    <t>Transcription represser when bound to EGR-1 site, represses IGF2 gene</t>
+  </si>
+  <si>
+    <t>Osaka group n=45 AML showing &lt;0.6 copies fared better than &gt;0.6</t>
   </si>
 </sst>
 </file>
@@ -728,6 +765,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>507711</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D68638-7092-91E7-486E-E05E82B9A710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4561975" y="2255921"/>
+          <a:ext cx="2397670" cy="3499645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1047,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C1B321-33CF-44A5-A39D-38EB3AAB44F5}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1186609-9B4D-4745-B53C-AB66BF7290FB}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1676,4 +1762,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5736A489-6D3C-4685-8DF6-5E8F3730E629}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SLS.xlsx
+++ b/SLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FBDC8-9B02-4C6B-AF52-55A8E18166EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385EE1A-7856-F449-ABC8-A88D9F6D8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30315" yWindow="4680" windowWidth="24495" windowHeight="15345" activeTab="2" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Price</t>
   </si>
@@ -191,15 +191,6 @@
   </si>
   <si>
     <t>Aleksandar Savic19 (19. Clinical Centre of Vojvodina, Novi Sad, Serbia)</t>
-  </si>
-  <si>
-    <t>MOSAIC THEORY</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>Control</t>
   </si>
   <si>
     <t>Omer Hassan Jamy (1. University of Alabama at Birmingham, Birmingham, AL) 205-801-9034 call the bama girl fly her to NYC - she thicc (African American)</t>
@@ -589,15 +580,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2883478</xdr:colOff>
+      <xdr:colOff>882453</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>25978</xdr:rowOff>
+      <xdr:rowOff>75539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593482</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593481</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>112387</xdr:rowOff>
+      <xdr:rowOff>161948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -620,8 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4035137" y="9343160"/>
-          <a:ext cx="3645811" cy="2168920"/>
+          <a:off x="2208209" y="9622222"/>
+          <a:ext cx="4413126" cy="2260897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,7 +674,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>33941</xdr:colOff>
+      <xdr:colOff>33942</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>70940</xdr:rowOff>
     </xdr:to>
@@ -727,7 +718,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>115277</xdr:colOff>
+      <xdr:colOff>115276</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>110053</xdr:rowOff>
     </xdr:to>
@@ -1133,19 +1124,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C1B321-33CF-44A5-A39D-38EB3AAB44F5}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1167,7 +1156,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1201,7 @@
         <v>101.83057358000001</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1232,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1251,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1268,7 +1257,7 @@
         <v>71.683573580000001</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1265,7 @@
         <v>237.18799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>-234.28</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>20</v>
       </c>
@@ -1302,23 +1291,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1186609-9B4D-4745-B53C-AB66BF7290FB}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1334,57 +1323,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1392,367 +1381,322 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <f>AVERAGE(12,15,18)</f>
-        <v>15</v>
-      </c>
-      <c r="J24">
-        <f>AVERAGE(11,9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C25" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <f>AVERAGE(12,15,18)</f>
-        <v>15</v>
-      </c>
-      <c r="J27">
-        <f>AVERAGE(11,9)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="15" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="15" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C72" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="15" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C76" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C80" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="15" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="15" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C89" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C90" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C92" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C96" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="19" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C101" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C107" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C120" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C133" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="20" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="15" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1768,78 +1712,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5736A489-6D3C-4685-8DF6-5E8F3730E629}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/SLS.xlsx
+++ b/SLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385EE1A-7856-F449-ABC8-A88D9F6D8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197873E-D1BB-4B0E-9BDC-125AD943F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{504C1B84-CF57-480C-AAED-9E257BE1703D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>PIC</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>Osaka group n=45 AML showing &lt;0.6 copies fared better than &gt;0.6</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -586,9 +586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>593481</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161948</xdr:rowOff>
+      <xdr:colOff>73091</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -632,7 +632,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2558991</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>77185</xdr:rowOff>
+      <xdr:rowOff>77184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -670,13 +670,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>532087</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>151555</xdr:rowOff>
+      <xdr:rowOff>151554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>33942</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>70940</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>387370</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6404742" y="16074727"/>
-          <a:ext cx="8054647" cy="5010334"/>
+          <a:off x="6928491" y="15464823"/>
+          <a:ext cx="9944456" cy="6259503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,15 +712,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123342</xdr:colOff>
+      <xdr:colOff>123341</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>115276</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>110053</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>253808</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -743,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17023413" y="15675429"/>
-          <a:ext cx="9789078" cy="5008624"/>
+          <a:off x="17202399" y="15152077"/>
+          <a:ext cx="12593563" cy="6564923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,25 +1124,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C1B321-33CF-44A5-A39D-38EB3AAB44F5}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1153,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1175,16 +1177,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f>64.332498+15.849056</f>
-        <v>80.181554000000006</v>
+        <v>70.381979000000001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1198,10 +1199,10 @@
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>101.83057358000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+        <v>77.420176900000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1214,14 +1215,13 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>9.147+21</f>
-        <v>30.146999999999998</v>
+        <v>21.030999999999999</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1234,13 +1234,14 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <f>4.547+5.49</f>
+        <v>10.036999999999999</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1254,31 +1255,31 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>71.683573580000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+        <v>66.426176900000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="1">
         <v>237.18799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1">
         <v>-234.28</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1293,410 +1294,412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1186609-9B4D-4745-B53C-AB66BF7290FB}">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="42" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C25" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C36" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C48" s="15" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="15" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="15" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C72" s="15" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C76" s="15" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C80" s="15" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C86" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C89" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C90" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C91" s="20" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C92" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C94" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C95" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C96" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C101" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C102" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C104" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C120" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C121" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C123" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C124" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C125" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C133" s="15" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C134" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C135" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C136" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C137" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1716,74 +1719,74 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
